--- a/KnowledgeGraph/data/type.xlsx
+++ b/KnowledgeGraph/data/type.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18755" windowHeight="7812"/>
+    <workbookView windowWidth="22056" windowHeight="9120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>名词</t>
   </si>
@@ -28,19 +28,24 @@
     <t>适用人群</t>
   </si>
   <si>
+    <t>别名</t>
+  </si>
+  <si>
     <t>净值型</t>
   </si>
   <si>
     <t>是按照份额发行并定期或不定期披露单位份额净值的理财产品，收益率随着净值变化而变化。</t>
   </si>
   <si>
-    <t>开放式、非保本浮动收益性。1、运作透明度高
-净值型产品定期披露产品运作公告，投资者在投资期内可准确掌握净值型产品的投资情况及产品净值等信息，产品运作透明度高；
-2、 真实反映投资资产的市场价值
-净值型产品投资资产流动性高，估值更为透明，在市值法的估值体系下，净值型产品净值可直接反映出投资资产的市场价值。</t>
-  </si>
-  <si>
-    <t>适合有一定的风险承担能力、追求更高收益的人群。</t>
+    <t>开放式、非保本浮动收益性。
+1、运作透明度高，净值型产品定期披露产品运作公告，投资者在投资期内可准确掌握净值型产品的投资情况及产品净值等信息，产品运作透明度高。
+2、 真实反映投资资产的市场价值，净值型产品投资资产流动性高，估值更为透明，在市值法的估值体系下，净值型产品净值可直接反映出投资资产的市场价值。</t>
+  </si>
+  <si>
+    <t>适合有一定的风险承担能力（高风险）、追求更高收益（高收益）的人群。</t>
+  </si>
+  <si>
+    <t>净值</t>
   </si>
   <si>
     <t>非净值型</t>
@@ -50,11 +55,14 @@
   </si>
   <si>
     <t>1、非净值型以投资一些稳定型的理财产品为主，收益上会相对较弱。
-2、 非净值型由于产品结构大多为固收，产品期权限最短也是需要一个月，而且期间不能进行操作。
+2、非净值型由于产品结构大多为固收，产品期权限最短也是需要一个月，而且期间不能进行操作。
 3、非净值型产品的市场风险比较小，但是产品会具备一定的流动性风险。</t>
   </si>
   <si>
-    <t>适合风险承担能力低，对收益追求低的人群。</t>
+    <t>适合风险承担能力低（低风险），对收益追求低的人群（低收益）。</t>
+  </si>
+  <si>
+    <t>非净值</t>
   </si>
 </sst>
 </file>
@@ -62,12 +70,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,74 +85,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,28 +129,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -187,9 +136,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,6 +153,22 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -211,9 +176,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,6 +187,42 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,187 +237,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,6 +428,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -441,17 +457,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,7 +515,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,45 +528,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -535,10 +536,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -547,142 +548,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1003,15 +1007,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1024,33 +1028,42 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" ht="17" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" ht="17" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/KnowledgeGraph/data/type.xlsx
+++ b/KnowledgeGraph/data/type.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22056" windowHeight="9120"/>
+    <workbookView windowWidth="17304" windowHeight="8555"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,8 +38,8 @@
   </si>
   <si>
     <t>开放式、非保本浮动收益性。
-1、运作透明度高，净值型产品定期披露产品运作公告，投资者在投资期内可准确掌握净值型产品的投资情况及产品净值等信息，产品运作透明度高。
-2、 真实反映投资资产的市场价值，净值型产品投资资产流动性高，估值更为透明，在市值法的估值体系下，净值型产品净值可直接反映出投资资产的市场价值。</t>
+    1、运作透明度高，净值型产品定期披露产品运作公告，投资者在投资期内可准确掌握净值型产品的投资情况及产品净值等信息，产品运作透明度高。
+    2、 真实反映投资资产的市场价值，净值型产品投资资产流动性高，估值更为透明，在市值法的估值体系下，净值型产品净值可直接反映出投资资产的市场价值。</t>
   </si>
   <si>
     <t>适合有一定的风险承担能力（高风险）、追求更高收益（高收益）的人群。</t>
@@ -55,8 +55,8 @@
   </si>
   <si>
     <t>1、非净值型以投资一些稳定型的理财产品为主，收益上会相对较弱。
-2、非净值型由于产品结构大多为固收，产品期权限最短也是需要一个月，而且期间不能进行操作。
-3、非净值型产品的市场风险比较小，但是产品会具备一定的流动性风险。</t>
+    2、非净值型由于产品结构大多为固收，产品期权限最短也是需要一个月，而且期间不能进行操作。
+    3、非净值型产品的市场风险比较小，但是产品会具备一定的流动性风险。</t>
   </si>
   <si>
     <t>适合风险承担能力低（低风险），对收益追求低的人群（低收益）。</t>
@@ -85,37 +85,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,6 +121,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -152,9 +151,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,6 +189,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -200,29 +212,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,19 +237,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,7 +375,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,36 +411,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -310,114 +418,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,17 +442,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,17 +485,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,9 +505,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,145 +536,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1010,7 +1010,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
